--- a/模版2.0.xlsx
+++ b/模版2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renyushuang/custom/PythonProject/XpadReleaseJsonBuild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB830A-D37B-B149-9B1B-3B1F8ACABA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEEE72A-BEAA-2F49-AD71-A6C7C473CD18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{052378FB-25D3-2C42-A5F2-5AFFFEC5CEAD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -229,13 +229,18 @@
     <t>10000金币领取弹窗关闭插屏</t>
   </si>
   <si>
+    <t>穿山甲-插屏</t>
+  </si>
+  <si>
+    <t>快手-全屏视频</t>
+  </si>
+  <si>
+    <t>csj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10286</t>
-  </si>
-  <si>
-    <t>穿山甲-插屏</t>
-  </si>
-  <si>
-    <t>快手-全屏视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -857,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78709624-B991-904E-8511-7BB7BD3ED7E7}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E17" activeCellId="1" sqref="D14 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1133,16 +1138,16 @@
         <v>57</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1166,7 +1171,9 @@
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16">
@@ -1212,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>18</v>

--- a/模版2.0.xlsx
+++ b/模版2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renyushuang/custom/PythonProject/XpadReleaseJsonBuild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEEE72A-BEAA-2F49-AD71-A6C7C473CD18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010813C-B8DE-7340-8B83-7EB4968474D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{052378FB-25D3-2C42-A5F2-5AFFFEC5CEAD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{052378FB-25D3-2C42-A5F2-5AFFFEC5CEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="广告id及优先级" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -89,157 +89,146 @@
     <t>ylh</t>
   </si>
   <si>
+    <t>ksh</t>
+  </si>
+  <si>
+    <t>穿山甲-信息流-模版渲染</t>
+  </si>
+  <si>
+    <t>广点通-插屏</t>
+  </si>
+  <si>
+    <t>快手-插屏</t>
+  </si>
+  <si>
+    <t>穿山甲-全屏视频</t>
+  </si>
+  <si>
+    <t>939119995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5011000119</t>
+  </si>
+  <si>
+    <t>5040698279101743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就红包界面加速饮料领取成功弹窗原生</t>
+  </si>
+  <si>
+    <t>10318</t>
+  </si>
+  <si>
+    <t>市场链接：http://zhushou.360.cn/detail/index/soft_id/4159413?recrefer=SE_D_%E8%B6%A3%E6%AD%A5%E8%B5%B0</t>
+  </si>
+  <si>
+    <t>广告位</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>渠道id</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>屏保信息流</t>
+  </si>
+  <si>
+    <t>穿山甲</t>
+  </si>
+  <si>
+    <t>屏保插屏</t>
+  </si>
+  <si>
+    <t>金币sdk插屏</t>
+  </si>
+  <si>
+    <t>穿山甲原生插屏</t>
+  </si>
+  <si>
+    <t>穿山甲原生插屏&gt;穿山甲全屏视频</t>
+  </si>
+  <si>
+    <t>穿山甲全屏视频</t>
+  </si>
+  <si>
+    <t>金币任务激励视频</t>
+  </si>
+  <si>
+    <t>金币固定任务激励视频</t>
+  </si>
+  <si>
+    <t>穿山甲-开屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广点通-原生模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿山甲-信息流-模版渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>快手-原生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿山甲应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011526754232417bac04cb066ff41d1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000金币领取弹窗关闭插屏</t>
+  </si>
+  <si>
+    <t>穿山甲-插屏</t>
+  </si>
+  <si>
+    <t>快手-全屏视频</t>
+  </si>
+  <si>
+    <t>csj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ksh</t>
-  </si>
-  <si>
-    <t>穿山甲-信息流-模版渲染</t>
-  </si>
-  <si>
-    <t>广点通-插屏</t>
-  </si>
-  <si>
-    <t>快手-插屏</t>
-  </si>
-  <si>
-    <t>穿山甲-全屏视频</t>
-  </si>
-  <si>
-    <t>939119995</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5011000119</t>
-  </si>
-  <si>
-    <t>5040698279101743</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就红包界面加速饮料领取成功弹窗原生</t>
-  </si>
-  <si>
-    <t>10318</t>
-  </si>
-  <si>
-    <t>市场链接：http://zhushou.360.cn/detail/index/soft_id/4159413?recrefer=SE_D_%E8%B6%A3%E6%AD%A5%E8%B5%B0</t>
-  </si>
-  <si>
-    <t>广告位</t>
-  </si>
-  <si>
-    <t>渠道</t>
-  </si>
-  <si>
-    <t>渠道id</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>屏保信息流</t>
-  </si>
-  <si>
-    <t>穿山甲</t>
-  </si>
-  <si>
-    <t>屏保插屏</t>
-  </si>
-  <si>
-    <t>金币sdk插屏</t>
-  </si>
-  <si>
-    <t>穿山甲原生插屏</t>
-  </si>
-  <si>
-    <t>穿山甲原生插屏&gt;穿山甲全屏视频</t>
-  </si>
-  <si>
-    <t>穿山甲全屏视频</t>
-  </si>
-  <si>
-    <t>金币任务激励视频</t>
-  </si>
-  <si>
-    <t>金币固定任务激励视频</t>
-  </si>
-  <si>
-    <t>穿山甲-开屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广点通-原生模版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿山甲-信息流-模版渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手-原生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿山甲应用ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告超时时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告过期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011526754232417bac04cb066ff41d1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000金币领取弹窗关闭插屏</t>
-  </si>
-  <si>
-    <t>穿山甲-插屏</t>
-  </si>
-  <si>
-    <t>快手-全屏视频</t>
-  </si>
-  <si>
-    <t>csj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10286</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78709624-B991-904E-8511-7BB7BD3ED7E7}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E17" activeCellId="1" sqref="D14 E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -891,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -900,25 +889,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>6</v>
@@ -927,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1">
@@ -947,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>13</v>
@@ -956,7 +945,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="8"/>
       <c r="K2" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L2" s="20">
         <v>5039119</v>
@@ -980,11 +969,11 @@
       <c r="D3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
+      <c r="E3" s="8">
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>16</v>
@@ -994,7 +983,7 @@
         <v>5000</v>
       </c>
       <c r="J3" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="20"/>
@@ -1007,14 +996,14 @@
       <c r="B4" s="21"/>
       <c r="C4" s="26"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
+      <c r="E4" s="8">
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H4" s="14">
         <v>60</v>
@@ -1034,23 +1023,21 @@
     <row r="5" spans="1:15">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="8">
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="14">
-        <v>50</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="20"/>
@@ -1061,24 +1048,22 @@
     <row r="6" spans="1:15">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="8">
+        <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
       <c r="K6" s="19"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
@@ -1088,20 +1073,24 @@
     <row r="7" spans="1:15">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="8">
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="H7" s="14">
+        <v>50</v>
+      </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
       <c r="K7" s="19"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -1111,16 +1100,20 @@
     <row r="8" spans="1:15">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1131,29 +1124,23 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -1163,47 +1150,47 @@
     <row r="10" spans="1:15">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="16">
-        <v>3</v>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="19"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="16">
-        <v>4</v>
-      </c>
+      <c r="J11" s="16"/>
       <c r="K11" s="19"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -1216,19 +1203,17 @@
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
       <c r="E12" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="16">
-        <v>1</v>
-      </c>
+      <c r="J12" s="16"/>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -1241,45 +1226,89 @@
       <c r="C13" s="19"/>
       <c r="D13" s="18"/>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
+      <c r="J13" s="16"/>
       <c r="K13" s="19"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
     <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>28</v>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O13"/>
-    <mergeCell ref="K2:K13"/>
-    <mergeCell ref="L2:L13"/>
-    <mergeCell ref="M2:M13"/>
-    <mergeCell ref="N2:N13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="O2:O15"/>
+    <mergeCell ref="K2:K15"/>
+    <mergeCell ref="L2:L15"/>
+    <mergeCell ref="M2:M15"/>
+    <mergeCell ref="N2:N15"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C3:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1305,30 +1334,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="7">
         <v>939119549</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1339,16 +1368,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7">
         <v>939119702</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1359,22 +1388,22 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="7">
         <v>939119889</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>939119607</v>
@@ -1389,16 +1418,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>939119636</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1409,16 +1438,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7">
         <v>939119474</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1449,16 +1478,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/模版2.0.xlsx
+++ b/模版2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renyushuang/custom/PythonProject/XpadReleaseJsonBuild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010813C-B8DE-7340-8B83-7EB4968474D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A788815C-15E6-7A4C-A7D5-B0161CFE5387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{052378FB-25D3-2C42-A5F2-5AFFFEC5CEAD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78709624-B991-904E-8511-7BB7BD3ED7E7}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1056,9 +1056,7 @@
       <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="8">
@@ -1089,7 +1087,7 @@
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="20"/>
